--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1891841.866234259</v>
+        <v>1967371.535899064</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>300.5669761248645</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -710,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>169.8607735608919</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>26.54536586583518</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>104.5529353109706</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>254.8508294034812</v>
+        <v>79.49282700064516</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>49.84727926079665</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>268.6413070582232</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1136,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>186.2507170030308</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>135.352867717798</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,28 +1335,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>52.61100976783511</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>235.474518856444</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>174.3062600431772</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>174.3062600431766</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>128.4285848360769</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>51.20625352634712</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2002,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>59.18920197600942</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>87.6522097616202</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>79.71208056177242</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>250.5321590745163</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>140.6576723276431</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>206.9934954636138</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>66.140852155354</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002169</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3001,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>220.3866928557993</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3193,10 +3195,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -3205,7 +3207,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>71.75851042627686</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505273872</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>166.2140976094955</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>192.3228038217121</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3515,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896894</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>31.43841002913627</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>26.15603929387865</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3955,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>27.71082088042286</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4192,16 +4194,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1667.156396867425</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>1667.156396867425</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>1667.156396867425</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
         <v>1363.553390680693</v>
@@ -4331,10 +4333,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2470.54386259832</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2470.54386259832</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2139.480975254749</v>
       </c>
       <c r="W2" t="n">
-        <v>2057.295728843236</v>
+        <v>2139.480975254749</v>
       </c>
       <c r="X2" t="n">
-        <v>2057.295728843236</v>
+        <v>2139.480975254749</v>
       </c>
       <c r="Y2" t="n">
-        <v>1667.156396867425</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="3">
@@ -4407,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4512,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>671.8985641854752</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>671.8985641854752</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>671.8985641854752</v>
       </c>
       <c r="V4" t="n">
-        <v>295.8809182883532</v>
+        <v>671.8985641854752</v>
       </c>
       <c r="W4" t="n">
-        <v>190.2718927217162</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="X4" t="n">
-        <v>190.2718927217162</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.2718927217162</v>
+        <v>382.4813941485145</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1526.106027515566</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="C5" t="n">
-        <v>1526.106027515566</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="D5" t="n">
-        <v>1526.106027515566</v>
+        <v>1502.442708164076</v>
       </c>
       <c r="E5" t="n">
-        <v>1140.317774917322</v>
+        <v>1116.654455565832</v>
       </c>
       <c r="F5" t="n">
-        <v>729.3318701277142</v>
+        <v>705.6685507762245</v>
       </c>
       <c r="G5" t="n">
-        <v>311.3680620259011</v>
+        <v>287.7047426744114</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4601,16 +4603,16 @@
         <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1916.245359491378</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>1526.106027515566</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="6">
@@ -4644,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>444.0275768541695</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>444.0275768541695</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541695</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>444.0275768541695</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>444.0275768541695</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>444.0275768541695</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>631.9064409481875</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>262.9439240077758</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,7 +4807,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2505.400333146899</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>2505.400333146899</v>
       </c>
       <c r="X8" t="n">
-        <v>1408.645612988121</v>
+        <v>2131.93457488582</v>
       </c>
       <c r="Y8" t="n">
-        <v>1018.506281012309</v>
+        <v>2131.93457488582</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4886,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>645.5696309511318</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="W10" t="n">
-        <v>235.5914466506042</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="11">
@@ -5018,49 +5020,49 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5118,28 +5120,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636253</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5176,16 +5178,16 @@
         <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G13" t="n">
         <v>359.1696912903951</v>
@@ -5197,16 +5199,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,31 +5217,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1322.84934122136</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1322.84934122136</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1322.84934122136</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>1322.84934122136</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>1322.84934122136</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
         <v>1322.84934122136</v>
@@ -5273,34 +5275,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.2699138005285</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1369.190427289138</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1369.190427289138</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>1369.190427289138</v>
       </c>
       <c r="V16" t="n">
-        <v>1336.117678709276</v>
+        <v>1369.190427289138</v>
       </c>
       <c r="W16" t="n">
-        <v>1046.700508672316</v>
+        <v>1369.190427289138</v>
       </c>
       <c r="X16" t="n">
-        <v>818.7109577742983</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="Y16" t="n">
-        <v>597.9183786307682</v>
+        <v>1141.200876391121</v>
       </c>
     </row>
     <row r="17">
@@ -5504,16 +5506,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5522,25 +5524,25 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5580,40 +5582,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L18" t="n">
-        <v>1196.088769018223</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M18" t="n">
-        <v>1503.408902298185</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1833.271529962218</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2112.811595180915</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>734.0220331715246</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028583</v>
+        <v>734.0220331715246</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028583</v>
+        <v>734.0220331715246</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1099.383571417482</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>810.2549326310402</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>555.5704444251534</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>266.1532743881928</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X19" t="n">
-        <v>266.1532743881928</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y19" t="n">
-        <v>266.1532743881928</v>
+        <v>734.0220331715246</v>
       </c>
     </row>
     <row r="20">
@@ -5729,34 +5731,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805457</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5765,7 +5767,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899127</v>
@@ -5774,22 +5776,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,28 +5828,28 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>644.700260475621</v>
+        <v>4073.011257337221</v>
       </c>
       <c r="C22" t="n">
-        <v>475.7640775477141</v>
+        <v>3904.075074409314</v>
       </c>
       <c r="D22" t="n">
-        <v>325.6474381353784</v>
+        <v>3753.958434996978</v>
       </c>
       <c r="E22" t="n">
-        <v>177.7343445529852</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>4073.011257337221</v>
       </c>
       <c r="V22" t="n">
-        <v>1275.130855347408</v>
+        <v>4073.011257337221</v>
       </c>
       <c r="W22" t="n">
-        <v>1275.130855347408</v>
+        <v>4073.011257337221</v>
       </c>
       <c r="X22" t="n">
-        <v>1047.141304449391</v>
+        <v>4073.011257337221</v>
       </c>
       <c r="Y22" t="n">
-        <v>826.3487253058607</v>
+        <v>4073.011257337221</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5984,31 +5986,31 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6020,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6065,28 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>245.1301850426789</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C25" t="n">
-        <v>245.1301850426789</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D25" t="n">
-        <v>245.1301850426789</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>1356.837813661294</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383442</v>
+        <v>1356.837813661294</v>
       </c>
       <c r="V25" t="n">
-        <v>465.9227641862091</v>
+        <v>1102.153325455407</v>
       </c>
       <c r="W25" t="n">
-        <v>465.9227641862091</v>
+        <v>812.7361554184462</v>
       </c>
       <c r="X25" t="n">
-        <v>465.9227641862091</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="Y25" t="n">
-        <v>245.1301850426789</v>
+        <v>584.7466045204288</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,40 +6211,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6312,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1096.475226584133</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C28" t="n">
-        <v>927.5390436562259</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D28" t="n">
-        <v>777.4224042438901</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E28" t="n">
-        <v>629.509310661497</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F28" t="n">
-        <v>482.6193631635866</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G28" t="n">
-        <v>314.4440414834072</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H28" t="n">
-        <v>164.0260330313505</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>4744.160657054477</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>4520.375241843983</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>4231.246603057541</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>3976.562114851654</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557902</v>
+        <v>3687.144944814693</v>
       </c>
       <c r="X28" t="n">
-        <v>1498.916270557902</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="Y28" t="n">
-        <v>1278.123691414372</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6460,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6482,10 +6484,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6537,22 +6539,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>570.0299571250968</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>816.7950850315608</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M30" t="n">
-        <v>1124.115218311523</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1453.977845975555</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
         <v>2123.441607278215</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>584.4452354807079</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C31" t="n">
-        <v>415.509052552801</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>4741.167820987513</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>4452.039182201071</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>4197.354693995184</v>
       </c>
       <c r="W31" t="n">
-        <v>1209.499100520942</v>
+        <v>3907.937523958223</v>
       </c>
       <c r="X31" t="n">
-        <v>986.8862794544777</v>
+        <v>3679.947973060206</v>
       </c>
       <c r="Y31" t="n">
-        <v>766.0937003109476</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,25 +6685,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6734,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1141.200876391121</v>
+        <v>807.3465877976907</v>
       </c>
       <c r="C34" t="n">
-        <v>972.2646934632137</v>
+        <v>638.4104048697839</v>
       </c>
       <c r="D34" t="n">
-        <v>822.1480540508779</v>
+        <v>488.2937654574481</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>488.2937654574481</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>488.2937654574481</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>320.1184437772687</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>169.700435325212</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6889,19 +6891,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W34" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X34" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="Y34" t="n">
-        <v>1322.84934122136</v>
+        <v>988.9950526279305</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550601</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610189</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405194</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155868</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805449</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822441</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,40 +6949,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619856</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>247.6350999123425</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C37" t="n">
-        <v>247.6350999123425</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D37" t="n">
-        <v>247.6350999123425</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E37" t="n">
-        <v>247.6350999123425</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123425</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.60808497466</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980057</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.08282758574</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557896</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557896</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1304.650812152126</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1080.865396941632</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>791.7367581551899</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V37" t="n">
-        <v>537.0522699493031</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W37" t="n">
-        <v>247.6350999123425</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X37" t="n">
-        <v>247.6350999123425</v>
+        <v>1047.141304449391</v>
       </c>
       <c r="Y37" t="n">
-        <v>247.6350999123425</v>
+        <v>1047.141304449391</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550601</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610189</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405194</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155868</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823767</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514064</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619126</v>
@@ -7193,31 +7195,31 @@
         <v>4454.632848899125</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,28 +7241,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.927113122792</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9909301948851</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D40" t="n">
-        <v>705.9909301948851</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G40" t="n">
-        <v>359.169691290395</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383383</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028581</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U40" t="n">
-        <v>874.927113122792</v>
+        <v>4231.246603057541</v>
       </c>
       <c r="V40" t="n">
-        <v>874.927113122792</v>
+        <v>3976.562114851654</v>
       </c>
       <c r="W40" t="n">
-        <v>874.927113122792</v>
+        <v>3687.144944814693</v>
       </c>
       <c r="X40" t="n">
-        <v>874.927113122792</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="Y40" t="n">
-        <v>874.927113122792</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="41">
@@ -7388,73 +7390,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4555.115143601278</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>385.5899330013836</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>385.5899330013836</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>385.5899330013836</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>385.5899330013836</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>385.5899330013836</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>675.0071030383442</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>385.5899330013836</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>385.5899330013836</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>385.5899330013836</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,25 +7633,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7658,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
         <v>97.21709146028584</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1470.925542395859</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1247.140127185365</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>958.0114883989231</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>958.0114883989231</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>668.5943183619626</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>668.5943183619626</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>277.6717966208057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9243,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L18" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298108</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M21" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9644,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928326</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>423.3376789165113</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>159.0121003135239</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298017</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>96.03744927814691</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>277.6717966208073</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720718</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10841,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599069</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208048</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>47.241301015212</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>44.27839330891823</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>69.4922251475264</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23710,16 +23712,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>200.9313897974809</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>87.24476067055974</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>133.895351296769</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>65.70896746115882</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>35.70519332406104</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24366,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>80.88988873074618</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>45.14414786021422</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>44.27839330891798</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338635</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24889,19 +24891,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>5.322962533237813</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>38.66073503799514</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>13.61788257244183</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25360,22 +25362,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>5.598006161891192</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25549,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>114.9955526174329</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>140.3375291694989</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26071,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>170.2099891031804</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>881650.7453192547</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>881650.7453192542</v>
+        <v>881650.7453192547</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>881650.7453192545</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26316,7 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117845</v>
@@ -26323,34 +26325,34 @@
         <v>508337.7776590217</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="G2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="H2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="I2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="J2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="K2" t="n">
         <v>508337.7776590217</v>
-      </c>
-      <c r="K2" t="n">
-        <v>508337.7776590216</v>
       </c>
       <c r="L2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="M2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="N2" t="n">
-        <v>508337.7776590213</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="P2" t="n">
         <v>508337.7776590216</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,10 +26435,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="I4" t="n">
         <v>22174.6075868707</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
@@ -26448,16 +26450,16 @@
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-304782.6746526939</v>
+        <v>-304782.674652694</v>
       </c>
       <c r="C6" t="n">
-        <v>285185.2045618509</v>
+        <v>285185.2045618506</v>
       </c>
       <c r="D6" t="n">
-        <v>285185.2045618506</v>
+        <v>285185.2045618508</v>
       </c>
       <c r="E6" t="n">
-        <v>-130984.192353462</v>
+        <v>-130984.1923534619</v>
       </c>
       <c r="F6" t="n">
-        <v>394175.8441234345</v>
+        <v>394175.8441234343</v>
       </c>
       <c r="G6" t="n">
+        <v>394175.8441234342</v>
+      </c>
+      <c r="H6" t="n">
+        <v>394175.8441234342</v>
+      </c>
+      <c r="I6" t="n">
         <v>394175.8441234343</v>
       </c>
-      <c r="H6" t="n">
-        <v>394175.8441234343</v>
-      </c>
-      <c r="I6" t="n">
-        <v>394175.8441234342</v>
-      </c>
       <c r="J6" t="n">
-        <v>217752.6249308413</v>
+        <v>217752.6249308414</v>
       </c>
       <c r="K6" t="n">
-        <v>394175.8441234343</v>
+        <v>394175.8441234344</v>
       </c>
       <c r="L6" t="n">
         <v>394175.8441234342</v>
       </c>
       <c r="M6" t="n">
-        <v>259374.8288895971</v>
+        <v>259374.8288895973</v>
       </c>
       <c r="N6" t="n">
-        <v>394175.844123434</v>
+        <v>394175.8441234344</v>
       </c>
       <c r="O6" t="n">
-        <v>394175.8441234341</v>
+        <v>394175.8441234343</v>
       </c>
       <c r="P6" t="n">
-        <v>394175.8441234342</v>
+        <v>394175.8441234343</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26740,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26753,31 +26755,31 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="O3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="P3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>81.3633939473973</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,10 +27432,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>46.58754679676591</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>185.6001730841837</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,10 +27596,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>181.9700630256204</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>69.07194336087596</v>
+        <v>244.429945763712</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>98.7681937574157</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>17.64056718375451</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27856,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>168.4323246176522</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>192.3993907523369</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28055,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>159.5345291821838</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>51.04847948014702</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31868,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32464,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33825,10 +33827,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,43 +34049,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35252,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>484.7652115523304</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35963,10 +35965,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L18" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35978,13 +35980,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145243</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>309.5875389014632</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768315</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778055969</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415059</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523295</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1967371.535899064</v>
+        <v>1960354.521007353</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>169.8607735608919</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>82.74209395073687</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>17.68532773870664</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>26.54536586583518</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>79.49282700064516</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>111.9019209508891</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,19 +952,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.03250833503009</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>268.6413070582232</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>17.8398137731143</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>135.352867717798</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>52.61100976783511</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>54.05021299716472</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1548,7 +1548,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431766</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>25.09943788452586</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1785,7 +1785,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>128.4285848360769</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>59.18920197600942</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2295,16 +2295,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>250.5321590745163</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>140.6576723276431</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002169</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>71.75851042627686</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>118.4898845065074</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>166.2140976094955</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>200.5749791798096</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2470.54386259832</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2470.54386259832</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2139.480975254749</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>2139.480975254749</v>
+        <v>2028.746545635231</v>
       </c>
       <c r="X2" t="n">
-        <v>2139.480975254749</v>
+        <v>1655.280787374151</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,10 +4409,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598708</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>680.8480976472212</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>530.7314582348854</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4515,25 +4515,25 @@
         <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>671.8985641854752</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>671.8985641854752</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>671.8985641854752</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>671.8985641854752</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>382.4813941485145</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>382.4813941485145</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>382.4813941485145</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1860.708406770827</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C5" t="n">
-        <v>1860.708406770827</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D5" t="n">
-        <v>1502.442708164076</v>
+        <v>187.8441300157135</v>
       </c>
       <c r="E5" t="n">
-        <v>1116.654455565832</v>
+        <v>187.8441300157135</v>
       </c>
       <c r="F5" t="n">
-        <v>705.6685507762245</v>
+        <v>180.89862926651</v>
       </c>
       <c r="G5" t="n">
-        <v>287.7047426744114</v>
+        <v>166.9752252051009</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>166.9752252051009</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4600,19 +4600,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834948</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>2247.308246834948</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="6">
@@ -4652,13 +4652,13 @@
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>411.2797076961344</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>264.3897601982241</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>95.38995993655647</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>95.38995993655647</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>95.38995993655647</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1745.334734821698</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2679.129077105986</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2679.129077105986</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2679.129077105986</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2679.129077105986</v>
       </c>
       <c r="V8" t="n">
-        <v>2505.400333146899</v>
+        <v>2679.129077105986</v>
       </c>
       <c r="W8" t="n">
-        <v>2505.400333146899</v>
+        <v>2679.129077105986</v>
       </c>
       <c r="X8" t="n">
-        <v>2131.93457488582</v>
+        <v>2305.663318844906</v>
       </c>
       <c r="Y8" t="n">
-        <v>2131.93457488582</v>
+        <v>2305.663318844906</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>645.5696309511318</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>418.2614436197335</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>418.2614436197335</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>418.2614436197335</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>418.2614436197335</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>190.2718927217162</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5020,67 +5020,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>765.2096374174363</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632138</v>
+        <v>765.2096374174363</v>
       </c>
       <c r="D13" t="n">
-        <v>822.148054050878</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684849</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>765.2096374174363</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,19 +5278,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5357,13 +5357,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775516</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M15" t="n">
         <v>1332.091733170013</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>732.6596981028219</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1369.190427289138</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1369.190427289138</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1369.190427289138</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1369.190427289138</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W16" t="n">
-        <v>1369.190427289138</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X16" t="n">
-        <v>1141.200876391121</v>
+        <v>758.0126656629491</v>
       </c>
       <c r="Y16" t="n">
-        <v>1141.200876391121</v>
+        <v>758.0126656629491</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,34 +5500,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5536,7 +5536,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.0220331715246</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>734.0220331715246</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>734.0220331715246</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>954.8146123150548</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>734.0220331715246</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,67 +5731,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805457</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,19 +5834,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4073.011257337221</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3904.075074409314</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3753.958434996978</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>4073.011257337221</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>4073.011257337221</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>4073.011257337221</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>4073.011257337221</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>4073.011257337221</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,49 +5968,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341675</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1356.837813661294</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1356.837813661294</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1102.153325455407</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>812.7361554184462</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,43 +6211,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4744.160657054477</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>4520.375241843983</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4231.246603057541</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>3976.562114851654</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>3687.144944814693</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,28 +6448,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6548,16 +6548,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>4741.167820987513</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>4452.039182201071</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>4197.354693995184</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>3907.937523958223</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>3679.947973060206</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,25 +6685,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,13 +6718,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6767,25 +6767,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>807.3465877976907</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>638.4104048697839</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>488.2937654574481</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>488.2937654574481</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>488.2937654574481</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>320.1184437772687</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>169.700435325212</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6870,40 +6870,40 @@
         <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974662</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980059</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.787631771461</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>1209.787631771461</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.787631771461</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>988.9950526279305</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,16 +6931,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6961,28 +6961,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>879.2482765610114</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C37" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1275.130855347408</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>1275.130855347408</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>1275.130855347408</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>1047.141304449391</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y37" t="n">
-        <v>1047.141304449391</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="38">
@@ -7162,43 +7162,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7250,16 +7250,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643586</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4437.14914771935</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>4231.246603057541</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>3976.562114851654</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>3687.144944814693</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,25 +7396,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7496,19 +7496,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7733,19 +7733,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>447.040877970705</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978208</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>423.3376789165113</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>277.6717966208073</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599069</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.409182577676</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>94.56526002104764</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>154.7325422974114</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>69.4922251475264</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>87.24476067055974</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,16 +24129,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>35.70519332406104</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>80.88988873074618</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338635</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>38.66073503799514</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,19 +25128,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518819</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>13.61788257244183</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>48.75693659211575</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25365,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>51.56266414401841</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>881650.7453192546</v>
+        <v>881650.7453192547</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>881650.7453192547</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>881650.7453192546</v>
+        <v>881650.7453192545</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>881650.7453192547</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>881650.7453192547</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>881650.7453192546</v>
+        <v>881650.7453192547</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
+        <v>533677.1504117846</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117844</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117845</v>
       </c>
       <c r="E2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="G2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="H2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="I2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="J2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="K2" t="n">
         <v>508337.7776590216</v>
-      </c>
-      <c r="K2" t="n">
-        <v>508337.7776590217</v>
       </c>
       <c r="L2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="M2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="N2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="P2" t="n">
         <v>508337.7776590216</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26438,7 +26438,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
@@ -26450,10 +26450,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-304782.674652694</v>
       </c>
       <c r="C6" t="n">
+        <v>285185.2045618509</v>
+      </c>
+      <c r="D6" t="n">
         <v>285185.2045618506</v>
       </c>
-      <c r="D6" t="n">
-        <v>285185.2045618508</v>
-      </c>
       <c r="E6" t="n">
-        <v>-130984.1923534619</v>
+        <v>-131958.7836131833</v>
       </c>
       <c r="F6" t="n">
-        <v>394175.8441234343</v>
+        <v>393201.2528637124</v>
       </c>
       <c r="G6" t="n">
-        <v>394175.8441234342</v>
+        <v>393201.2528637126</v>
       </c>
       <c r="H6" t="n">
-        <v>394175.8441234342</v>
+        <v>393201.2528637127</v>
       </c>
       <c r="I6" t="n">
-        <v>394175.8441234343</v>
+        <v>393201.2528637126</v>
       </c>
       <c r="J6" t="n">
-        <v>217752.6249308414</v>
+        <v>216778.0336711197</v>
       </c>
       <c r="K6" t="n">
-        <v>394175.8441234344</v>
+        <v>393201.2528637126</v>
       </c>
       <c r="L6" t="n">
-        <v>394175.8441234342</v>
+        <v>393201.2528637126</v>
       </c>
       <c r="M6" t="n">
-        <v>259374.8288895973</v>
+        <v>258400.2376298752</v>
       </c>
       <c r="N6" t="n">
-        <v>394175.8441234344</v>
+        <v>393201.2528637126</v>
       </c>
       <c r="O6" t="n">
-        <v>394175.8441234343</v>
+        <v>393201.2528637126</v>
       </c>
       <c r="P6" t="n">
-        <v>394175.8441234343</v>
+        <v>393201.2528637126</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>46.58754679676591</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>266.4988747666761</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>149.5614933599212</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>185.6001730841837</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>244.429945763712</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>40.02939529397216</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>4.167450853506899</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>17.64056718375451</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>36.6385888016974</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>192.3993907523369</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>159.5345291821838</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29942,7 +29942,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>-2.950042072881978e-12</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33657,40 +33657,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,10 +33730,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
@@ -33742,7 +33742,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
@@ -33751,10 +33751,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33830,7 +33830,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33842,10 +33842,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33888,46 +33888,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,43 +33967,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,43 +34049,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35020,19 +35020,19 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958064</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>756.5322523145243</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37238,7 +37238,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778055992</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206028</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>526.9295015768315</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37876,10 +37876,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1960354.521007353</v>
+        <v>1965293.783856385</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>282.6802076455347</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>82.74209395073687</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>17.68532773870664</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>34.45403149117942</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>41.03250833503009</v>
+        <v>41.03250833502987</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>257.2082709849373</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>17.8398137731143</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>223.1498336210773</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>54.05021299716472</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>7.678017864944679</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.09943788452586</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>28.31840607200082</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>190.7955476484028</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>38.04427376178251</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>5.562624396424664</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>101.5243062693075</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>118.4898845065074</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>46.18719652447367</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151917</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,7 +3957,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>169.7438101404423</v>
       </c>
     </row>
     <row r="44">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>37.75862782376893</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>200.5749791798096</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1268.68094731003</v>
+        <v>1494.518401093285</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>1494.518401093285</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1136.252702486534</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>750.4644498882899</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>339.4785450986823</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>2028.746545635231</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>1655.280787374151</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y2" t="n">
-        <v>1655.280787374151</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,16 +4412,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C4" t="n">
-        <v>680.8480976472212</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D4" t="n">
-        <v>530.7314582348854</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="E4" t="n">
-        <v>382.8183646524922</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>551.822117562146</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>382.8223173004784</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>225.0739447330085</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>88.7450338316568</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="5">
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4661,10 +4661,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785276</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>559.1928012785276</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="E7" t="n">
-        <v>411.2797076961344</v>
+        <v>411.2797076961342</v>
       </c>
       <c r="F7" t="n">
-        <v>264.3897601982241</v>
+        <v>264.3897601982238</v>
       </c>
       <c r="G7" t="n">
-        <v>95.38995993655647</v>
+        <v>95.38995993655624</v>
       </c>
       <c r="H7" t="n">
-        <v>95.38995993655647</v>
+        <v>95.38995993655624</v>
       </c>
       <c r="I7" t="n">
-        <v>95.38995993655647</v>
+        <v>95.38995993655624</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1919.063478780785</v>
+        <v>1760.906005007191</v>
       </c>
       <c r="C8" t="n">
-        <v>1550.100961840373</v>
+        <v>1391.943488066779</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>1033.677789460029</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>647.8895368617846</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>640.9440361125811</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2679.129077105986</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2679.129077105986</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2679.129077105986</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2679.129077105986</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2679.129077105986</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>2679.129077105986</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X8" t="n">
-        <v>2305.663318844906</v>
+        <v>2147.505845071313</v>
       </c>
       <c r="Y8" t="n">
-        <v>2305.663318844906</v>
+        <v>2147.505845071313</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4898,10 +4898,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,67 +4938,67 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
         <v>502.7251118619119</v>
@@ -5007,7 +5007,7 @@
         <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5041,7 +5041,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5120,13 +5120,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
         <v>1247.466478653857</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>765.2096374174363</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="C13" t="n">
-        <v>765.2096374174363</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D13" t="n">
         <v>710.6134626728254</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>986.0022165609664</v>
+        <v>1491.160696956948</v>
       </c>
       <c r="X13" t="n">
-        <v>986.0022165609664</v>
+        <v>1263.171146058931</v>
       </c>
       <c r="Y13" t="n">
-        <v>765.2096374174363</v>
+        <v>1042.378566915401</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,7 +5278,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514085</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775518</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2507.25999687553</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>732.6596981028219</v>
+        <v>573.2461374003673</v>
       </c>
       <c r="C16" t="n">
-        <v>563.7235151749151</v>
+        <v>573.2461374003673</v>
       </c>
       <c r="D16" t="n">
-        <v>563.7235151749151</v>
+        <v>423.1294979880315</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
         <v>247.6350999123426</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>986.0022165609664</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W16" t="n">
-        <v>986.0022165609664</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X16" t="n">
-        <v>758.0126656629491</v>
+        <v>754.894602230607</v>
       </c>
       <c r="Y16" t="n">
-        <v>758.0126656629491</v>
+        <v>754.894602230607</v>
       </c>
     </row>
     <row r="17">
@@ -5512,16 +5512,16 @@
         <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5533,10 +5533,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1306.193495155475</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1306.193495155475</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5743,19 +5743,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5776,7 +5776,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5785,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>282.5355983135321</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,31 +6007,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,19 +6056,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
         <v>644.6755122555218</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6250,22 +6250,22 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6302,10 +6302,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
         <v>644.6755122555218</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819269</v>
       </c>
     </row>
     <row r="29">
@@ -6442,25 +6442,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6469,7 +6469,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6481,13 +6481,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>981.7980808734433</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>812.8618979455364</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>662.7452585332006</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>514.8321649508075</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>367.9422174528971</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>199.7668957727177</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>981.7980808734433</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>981.7980808734433</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,25 +6685,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,13 +6718,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6767,25 +6767,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028583</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028583</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6870,40 +6870,40 @@
         <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974662</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980059</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585742</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557898</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028583</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
@@ -6940,7 +6940,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,16 +6949,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7016,22 +7016,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>216.9038434870658</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E37" t="n">
         <v>97.21709146028587</v>
@@ -7095,16 +7095,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286132</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X37" t="n">
-        <v>437.6964226305959</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.9038434870658</v>
+        <v>395.2468244550147</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7198,13 +7198,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7402,10 +7402,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028562</v>
@@ -7414,22 +7414,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7496,19 +7496,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7596,22 +7596,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028584</v>
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L45" t="n">
-        <v>1099.417155020476</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M45" t="n">
-        <v>1406.737288300438</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>265.3924131404652</v>
+        <v>282.2470670630133</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>282.2470670630133</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V46" t="n">
-        <v>1185.240178049213</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W46" t="n">
-        <v>895.8230080122524</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X46" t="n">
-        <v>667.8334571142351</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y46" t="n">
-        <v>447.040877970705</v>
+        <v>282.2470670630133</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>29.47535963978233</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L45" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>94.56526002104764</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23469,19 +23469,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>278.8449804716463</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>154.7325422974114</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>118.1155565745684</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>7.125262335200489</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>141.7877064201548</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>174.2693557855126</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>47.3895220982286</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,19 +24888,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>2.105225817279774</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>103.0576765518819</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,13 +25314,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>48.75693659211575</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25365,7 +25365,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>179.5224588645635</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338568</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>48.8408432116525</v>
       </c>
     </row>
     <row r="44">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>110.8568451944434</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>51.56266414401841</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>881650.7453192547</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>881650.7453192546</v>
+        <v>881650.7453192543</v>
       </c>
     </row>
     <row r="7">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>881650.7453192546</v>
+        <v>881650.7453192547</v>
       </c>
     </row>
     <row r="14">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117846</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="F2" t="n">
         <v>508337.7776590214</v>
       </c>
       <c r="G2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="H2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>508337.7776590217</v>
       </c>
-      <c r="I2" t="n">
-        <v>508337.7776590216</v>
-      </c>
       <c r="J2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="K2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="L2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="M2" t="n">
         <v>508337.7776590215</v>
@@ -26352,10 +26352,10 @@
         <v>508337.7776590216</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338374</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26435,31 +26435,31 @@
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
     </row>
     <row r="5">
@@ -26475,34 +26475,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-304782.674652694</v>
+        <v>-304782.6746526939</v>
       </c>
       <c r="C6" t="n">
-        <v>285185.2045618509</v>
+        <v>285185.2045618508</v>
       </c>
       <c r="D6" t="n">
         <v>285185.2045618506</v>
       </c>
       <c r="E6" t="n">
-        <v>-131958.7836131833</v>
+        <v>-131081.6514794338</v>
       </c>
       <c r="F6" t="n">
-        <v>393201.2528637124</v>
+        <v>394078.3849974619</v>
       </c>
       <c r="G6" t="n">
-        <v>393201.2528637126</v>
+        <v>394078.3849974622</v>
       </c>
       <c r="H6" t="n">
-        <v>393201.2528637127</v>
+        <v>394078.3849974621</v>
       </c>
       <c r="I6" t="n">
-        <v>393201.2528637126</v>
+        <v>394078.3849974623</v>
       </c>
       <c r="J6" t="n">
-        <v>216778.0336711197</v>
+        <v>217655.1658048692</v>
       </c>
       <c r="K6" t="n">
-        <v>393201.2528637126</v>
+        <v>394078.3849974622</v>
       </c>
       <c r="L6" t="n">
-        <v>393201.2528637126</v>
+        <v>394078.384997462</v>
       </c>
       <c r="M6" t="n">
-        <v>258400.2376298752</v>
+        <v>259277.3697636244</v>
       </c>
       <c r="N6" t="n">
-        <v>393201.2528637126</v>
+        <v>394078.3849974621</v>
       </c>
       <c r="O6" t="n">
-        <v>393201.2528637126</v>
+        <v>394078.3849974622</v>
       </c>
       <c r="P6" t="n">
-        <v>393201.2528637126</v>
+        <v>394078.3849974622</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26764,16 +26764,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>131.1039623752603</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>266.4988747666761</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>149.5614933599212</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10.74592769735757</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>4.167450853506899</v>
+        <v>4.167450853507141</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27867,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>156.5758990358577</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>36.6385888016974</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>63.3731647155137</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29942,7 +29942,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-2.950042072881978e-12</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>117.4883924248565</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382562</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37238,7 +37238,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778055992</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206028</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>429.2814066296117</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37876,10 +37876,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38098,10 +38098,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L45" t="n">
-        <v>429.2814066296117</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38116,7 +38116,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
